--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Romania_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Romania_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5842,12 +5842,87 @@
         <v>4.5917</v>
       </c>
       <c r="E216" t="n">
-        <v>4.49503</v>
+        <v>4.4478</v>
       </c>
       <c r="F216" t="n">
-        <v>4.515</v>
+        <v>4.4478</v>
       </c>
       <c r="G216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDRON</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>4.4295</v>
+      </c>
+      <c r="D217" t="n">
+        <v>4.66844</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.4169</v>
+      </c>
+      <c r="F217" t="n">
+        <v>4.6422</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDRON</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>4.6421</v>
+      </c>
+      <c r="D218" t="n">
+        <v>4.65664</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4.5035</v>
+      </c>
+      <c r="F218" t="n">
+        <v>4.5365</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDRON</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>4.5517</v>
+      </c>
+      <c r="D219" t="n">
+        <v>4.5716</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4.4849</v>
+      </c>
+      <c r="F219" t="n">
+        <v>4.4849</v>
+      </c>
+      <c r="G219" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Romania_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Romania_FX.xlsx
@@ -5917,10 +5917,10 @@
         <v>4.5716</v>
       </c>
       <c r="E219" t="n">
-        <v>4.4849</v>
+        <v>4.352</v>
       </c>
       <c r="F219" t="n">
-        <v>4.4849</v>
+        <v>4.3946</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Romania_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Romania_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G219"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -5920,9 +5920,34 @@
         <v>4.352</v>
       </c>
       <c r="F219" t="n">
-        <v>4.3946</v>
+        <v>4.4826</v>
       </c>
       <c r="G219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDRON</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>4.4787</v>
+      </c>
+      <c r="D220" t="n">
+        <v>4.5296</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4.4562</v>
+      </c>
+      <c r="F220" t="n">
+        <v>4.4778</v>
+      </c>
+      <c r="G220" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Romania_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Romania_FX.xlsx
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -5939,13 +5939,13 @@
         <v>4.4787</v>
       </c>
       <c r="D220" t="n">
-        <v>4.5296</v>
+        <v>4.5628</v>
       </c>
       <c r="E220" t="n">
         <v>4.4562</v>
       </c>
       <c r="F220" t="n">
-        <v>4.4778</v>
+        <v>4.5428</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Romania_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Romania_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5939,15 +5939,90 @@
         <v>4.4787</v>
       </c>
       <c r="D220" t="n">
-        <v>4.5628</v>
+        <v>4.58647</v>
       </c>
       <c r="E220" t="n">
         <v>4.4562</v>
       </c>
       <c r="F220" t="n">
-        <v>4.5428</v>
+        <v>4.5542</v>
       </c>
       <c r="G220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDRON</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>4.5546</v>
+      </c>
+      <c r="D221" t="n">
+        <v>4.7417</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4.54653</v>
+      </c>
+      <c r="F221" t="n">
+        <v>4.7021</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDRON</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>4.6964</v>
+      </c>
+      <c r="D222" t="n">
+        <v>4.7602</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4.64967</v>
+      </c>
+      <c r="F222" t="n">
+        <v>4.6949</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDRON</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>4.6941</v>
+      </c>
+      <c r="D223" t="n">
+        <v>4.7224</v>
+      </c>
+      <c r="E223" t="n">
+        <v>4.61965</v>
+      </c>
+      <c r="F223" t="n">
+        <v>4.6438</v>
+      </c>
+      <c r="G223" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Romania_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Romania_FX.xlsx
@@ -6017,10 +6017,10 @@
         <v>4.7224</v>
       </c>
       <c r="E223" t="n">
-        <v>4.61965</v>
+        <v>4.5326</v>
       </c>
       <c r="F223" t="n">
-        <v>4.6438</v>
+        <v>4.5577</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Romania_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Romania_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5527,12 +5527,35 @@
         <v>4.7224</v>
       </c>
       <c r="E223">
-        <v>4.5326</v>
+        <v>4.5136</v>
       </c>
       <c r="F223">
-        <v>4.5507</v>
+        <v>4.562</v>
       </c>
       <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <v>4.5619</v>
+      </c>
+      <c r="D224">
+        <v>4.6039</v>
+      </c>
+      <c r="E224">
+        <v>4.5544</v>
+      </c>
+      <c r="F224">
+        <v>4.5975</v>
+      </c>
+      <c r="G224">
         <v>0</v>
       </c>
     </row>
